--- a/medicine/Premiers secours et secourisme/Luxembourg_Air_Rescue/Luxembourg_Air_Rescue.xlsx
+++ b/medicine/Premiers secours et secourisme/Luxembourg_Air_Rescue/Luxembourg_Air_Rescue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxembourg Air Rescue est une association privée humanitaire et l’unique organisation qui assure le sauvetage aérien au Luxembourg et qui peut rallier chaque point du pays avec ses hélicoptères dans les 10 minutes[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luxembourg Air Rescue est une association privée humanitaire et l’unique organisation qui assure le sauvetage aérien au Luxembourg et qui peut rallier chaque point du pays avec ses hélicoptères dans les 10 minutes.
 Ses appareils (dont 6 hélicoptères) sont basés à Luxembourg-Ville, sur le site de l'aéroport de Luxembourg-Findel.
 </t>
         </is>
@@ -514,19 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luxembourg et Grande région
-Basés à l’aéroport au Findel et à Ettelbrück, les hélicoptères de sauvetage de Luxembourg Air Rescue sont intégrés au service de secours national SAMU, pour les opérations de sauvetage d’urgence, c’est-à-dire les missions dites primaires. Cette disposition géographique leur permet de joindre rapidement chaque point du pays afin d’apporter une assistance médicale d’urgence.
-Un troisième hélicoptère de sauvetage, stationné lui aussi à l’aéroport de Luxembourg-Findel, intervient pour des missions de sauvetage sur les territoires des « Länder » de Rhénanie-Palatinat et Sarre. Ces trois hélicoptères interviennent également pour des missions secondaires, c’est-à-dire pour des vols de transfert d’un patient en soins intensifs d’un hôpital luxembourgeois vers une clinique spécialisée au Luxembourg ou à l’étranger[4].
-Au monde
-Les avions sanitaires du sauvetage aérien se trouvent sur la station de base, située à l’aéroport de Findel. Les avions sont équipés pour être utilisés de jour comme de nuit, sur moyennes et longues distances et sont en mesure de transporter entre différentes cliniques des patients en soins intensifs. Ils peuvent également procéder à des rapatriements depuis l’étranger de personnes malades ou accidentées.
-Dans le cadre d’un changement de flotte, les avions sanitaires du type LearJet 35A étaient échangés par des avions du type LearJet 45XR.
-Pour le rapatriement des patients, LAR dispose actuellement de 6 avions sanitaires du type Learjet 45XR.
-Transports d’organes
-En 2007 LAR a remporté un appel d'offres européen pour le transport exclusif d'organes pour la France. Depuis lors, LAR réalise avec succès cette tâche avec ses avions et effectue notamment durant la nuit, des vols transportant des organes qui vont sauver des vies.
-Missions humanitaires
-Aide apportée à des opérations de sauvetage en collaboration avec le gouvernement luxembourgeois, l'OTAN et l'ONU.
-Partenaire de emergency.lu [5]:
-Emergency.lu est un accord du gouvernement luxembourgeois avec l'association momentanée (AM) HITEC Luxembourg SA - SES Astra TechCom SA, en partenariat avec Luxembourg SA Air Ambulance, pour la fourniture au niveau mondial d'un système de communication à réaction rapide en cas de catastrophes et de missions humanitaires. L'accord inclut l'installation et la mise en service d'un système de communication satellitaire mondial. Luxembourg Air Ambulance offrira le soutien aérien nécessaire et veillera à ce que la procédure se déroule sereinement à l'aéroport de Luxembourg-Findel.
+          <t>Luxembourg et Grande région</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basés à l’aéroport au Findel et à Ettelbrück, les hélicoptères de sauvetage de Luxembourg Air Rescue sont intégrés au service de secours national SAMU, pour les opérations de sauvetage d’urgence, c’est-à-dire les missions dites primaires. Cette disposition géographique leur permet de joindre rapidement chaque point du pays afin d’apporter une assistance médicale d’urgence.
+Un troisième hélicoptère de sauvetage, stationné lui aussi à l’aéroport de Luxembourg-Findel, intervient pour des missions de sauvetage sur les territoires des « Länder » de Rhénanie-Palatinat et Sarre. Ces trois hélicoptères interviennent également pour des missions secondaires, c’est-à-dire pour des vols de transfert d’un patient en soins intensifs d’un hôpital luxembourgeois vers une clinique spécialisée au Luxembourg ou à l’étranger.
 </t>
         </is>
       </c>
@@ -552,10 +559,127 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au monde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les avions sanitaires du sauvetage aérien se trouvent sur la station de base, située à l’aéroport de Findel. Les avions sont équipés pour être utilisés de jour comme de nuit, sur moyennes et longues distances et sont en mesure de transporter entre différentes cliniques des patients en soins intensifs. Ils peuvent également procéder à des rapatriements depuis l’étranger de personnes malades ou accidentées.
+Dans le cadre d’un changement de flotte, les avions sanitaires du type LearJet 35A étaient échangés par des avions du type LearJet 45XR.
+Pour le rapatriement des patients, LAR dispose actuellement de 6 avions sanitaires du type Learjet 45XR.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transports d’organes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007 LAR a remporté un appel d'offres européen pour le transport exclusif d'organes pour la France. Depuis lors, LAR réalise avec succès cette tâche avec ses avions et effectue notamment durant la nuit, des vols transportant des organes qui vont sauver des vies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Missions humanitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aide apportée à des opérations de sauvetage en collaboration avec le gouvernement luxembourgeois, l'OTAN et l'ONU.
+Partenaire de emergency.lu :
+Emergency.lu est un accord du gouvernement luxembourgeois avec l'association momentanée (AM) HITEC Luxembourg SA - SES Astra TechCom SA, en partenariat avec Luxembourg SA Air Ambulance, pour la fourniture au niveau mondial d'un système de communication à réaction rapide en cas de catastrophes et de missions humanitaires. L'accord inclut l'installation et la mise en service d'un système de communication satellitaire mondial. Luxembourg Air Ambulance offrira le soutien aérien nécessaire et veillera à ce que la procédure se déroule sereinement à l'aéroport de Luxembourg-Findel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luxembourg_Air_Rescue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Les étapes clés de Luxembourg Air Rescue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er mars 1989
 Luxembourg Air Rescue présente son premier hélicoptère. Le jour-même, le Bell B 206 Long Ranger vole sur sa première mission. Cependant, Air Rescue n’a le droit que de voler sur des missions inter-hospitalières.
@@ -566,7 +690,7 @@
 15 mai 1991
 Changement de flotte: Le nouvel hélicoptère BO 105 CBS à deux turbines remplace la Bell Long Ranger à une turbine.
 1er novembre 1991
-Grâce à une convention avec le ministre de l’Intérieur, l’intégration d’Air Rescue dans le service de secours luxembourgeois SAMU est réalisée[6].
+Grâce à une convention avec le ministre de l’Intérieur, l’intégration d’Air Rescue dans le service de secours luxembourgeois SAMU est réalisée.
 Avril 1995
 Le Grand-Duc héritier Henri assume le haut patronage de Luxembourg Air Rescue.
 Avril 1995
@@ -686,7 +810,7 @@
 30 juillet 2019
 Un sixième Learjet 45XR vient renforcer la flotte de jets-ambulances du groupe LAR.
 Immatriculé « LX TWO », l’appareil a été accueilli sur le tarmac du Findel par les pompiers de l’aéroport qui l'ont baptisé de leur canon à eau, comme le veut la tradition.
-Avec l'entrée en service d'un LearJet 45XR supplémentaire, la flotte de  Luxembourg Air Rescue se compose de six hélicoptères MD902 et de six Learjet 45XR[7].
+Avec l'entrée en service d'un LearJet 45XR supplémentaire, la flotte de  Luxembourg Air Rescue se compose de six hélicoptères MD902 et de six Learjet 45XR.
 28 mars 2020
 COVID-19 :
 Avec ses jets-ambulances et ses deux hélicoptères, LAR a été intégré dans le système d'urgence du SAMU français (Service d'aide médicale urgente) à la demande du gouvernement français.
@@ -704,7 +828,7 @@
 Deux « Isolation Chambers » supplémentaires ont également été achetées pour le transport de patients hautement infectieux dans le Learjet. Cet équipement a été financé avec l’aimable soutien de la Fondation COVID-19, sous l’égide de la Fondation de Luxembourg.
 Depuis le début de la pandémie, LAR a transporté un grand nombre de patients COVID-19, endéans et en dehors des frontières luxembourgeoises, grâce à une solidarité et une cohésion transfrontalière sans précédent.
 16 décembre 2020
-Le Prix De Gaulle-Adenauer 2020 a été décerné à Luxembourg Air Rescue, ainsi qu’à la DRF Luftrettung en récompense de leurs performances transfrontalières exceptionnelles dans le cadre de la crise de la COVID-19. Le jury a tenu à rendre hommage au grand professionnalisme et à la solidarité dont ont fait preuve les deux organisations lors des transports de patients français souffrant de la COVID-19 vers les hôpitaux allemands et vice-versa, soulignant ainsi ce symbole particulier d’entraide entre voisins européens[8].</t>
+Le Prix De Gaulle-Adenauer 2020 a été décerné à Luxembourg Air Rescue, ainsi qu’à la DRF Luftrettung en récompense de leurs performances transfrontalières exceptionnelles dans le cadre de la crise de la COVID-19. Le jury a tenu à rendre hommage au grand professionnalisme et à la solidarité dont ont fait preuve les deux organisations lors des transports de patients français souffrant de la COVID-19 vers les hôpitaux allemands et vice-versa, soulignant ainsi ce symbole particulier d’entraide entre voisins européens.</t>
         </is>
       </c>
     </row>
